--- a/branches/dev/ValueSet-OnARVVS.xlsx
+++ b/branches/dev/ValueSet-OnARVVS.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T11:14:20+00:00</t>
+    <t>2023-06-07T12:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
